--- a/BackTest/2020-01-21 BackTest XSR.xlsx
+++ b/BackTest/2020-01-21 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3489938.519290599</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3489938.519290599</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.838</v>
@@ -521,7 +521,7 @@
         <v>-3202803.199290599</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.838</v>
@@ -562,7 +562,7 @@
         <v>-2863719.441190599</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5.839</v>
@@ -603,7 +603,7 @@
         <v>-2864350.859690599</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.84</v>
@@ -640,7 +640,7 @@
         <v>-2549868.486390599</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5.839</v>
@@ -681,7 +681,7 @@
         <v>-2548903.095390599</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5.84</v>
@@ -722,7 +722,7 @@
         <v>-2545685.125890599</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>5.859</v>
@@ -763,7 +763,7 @@
         <v>-2281958.491190599</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>5.891</v>
@@ -882,9 +882,11 @@
         <v>-3167350.214390599</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.847</v>
+      </c>
       <c r="J13" t="n">
         <v>5.84</v>
       </c>
@@ -921,9 +923,11 @@
         <v>-3167350.214390599</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.839</v>
+      </c>
       <c r="J14" t="n">
         <v>5.84</v>
       </c>
@@ -960,9 +964,11 @@
         <v>-2737688.643590599</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.839</v>
+      </c>
       <c r="J15" t="n">
         <v>5.84</v>
       </c>
@@ -999,9 +1005,11 @@
         <v>-2624896.468090599</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.843</v>
+      </c>
       <c r="J16" t="n">
         <v>5.84</v>
       </c>
@@ -1038,9 +1046,11 @@
         <v>-2184614.059051887</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5.899</v>
+      </c>
       <c r="J17" t="n">
         <v>5.84</v>
       </c>
@@ -1311,9 +1321,11 @@
         <v>-3106240.549490599</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.902</v>
+      </c>
       <c r="J24" t="n">
         <v>5.84</v>
       </c>
@@ -1584,9 +1596,11 @@
         <v>-3138277.0197906</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.856</v>
+      </c>
       <c r="J31" t="n">
         <v>5.84</v>
       </c>
@@ -1623,9 +1637,11 @@
         <v>-3428083.0246906</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.869</v>
+      </c>
       <c r="J32" t="n">
         <v>5.84</v>
       </c>
@@ -1662,9 +1678,11 @@
         <v>-3682517.5150906</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.864</v>
+      </c>
       <c r="J33" t="n">
         <v>5.84</v>
       </c>
@@ -1701,9 +1719,11 @@
         <v>-3905292.9324906</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.859</v>
+      </c>
       <c r="J34" t="n">
         <v>5.84</v>
       </c>
@@ -1740,9 +1760,11 @@
         <v>-4091626.8564906</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.858</v>
+      </c>
       <c r="J35" t="n">
         <v>5.84</v>
       </c>
@@ -1779,7 +1801,7 @@
         <v>-4096226.4244906</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5.857</v>
@@ -1820,9 +1842,11 @@
         <v>-4096226.4244906</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.856</v>
+      </c>
       <c r="J37" t="n">
         <v>5.84</v>
       </c>
@@ -1859,9 +1883,11 @@
         <v>-4386894.1646906</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.856</v>
+      </c>
       <c r="J38" t="n">
         <v>5.84</v>
       </c>
@@ -1898,9 +1924,11 @@
         <v>-4355332.3076906</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.855</v>
+      </c>
       <c r="J39" t="n">
         <v>5.84</v>
       </c>
@@ -1937,9 +1965,11 @@
         <v>-4355332.3076906</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.856</v>
+      </c>
       <c r="J40" t="n">
         <v>5.84</v>
       </c>
@@ -1976,9 +2006,11 @@
         <v>-4355242.2180906</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.856</v>
+      </c>
       <c r="J41" t="n">
         <v>5.84</v>
       </c>
@@ -2015,9 +2047,11 @@
         <v>-4355242.2180906</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.857</v>
+      </c>
       <c r="J42" t="n">
         <v>5.84</v>
       </c>
@@ -2054,9 +2088,11 @@
         <v>-4355242.2180906</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.857</v>
+      </c>
       <c r="J43" t="n">
         <v>5.84</v>
       </c>
@@ -2093,9 +2129,11 @@
         <v>-4175958.7511906</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.857</v>
+      </c>
       <c r="J44" t="n">
         <v>5.84</v>
       </c>
@@ -2132,9 +2170,11 @@
         <v>-4175958.7511906</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.859</v>
+      </c>
       <c r="J45" t="n">
         <v>5.84</v>
       </c>
@@ -2171,9 +2211,11 @@
         <v>-4447910.2471906</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.859</v>
+      </c>
       <c r="J46" t="n">
         <v>5.84</v>
       </c>
@@ -2210,9 +2252,11 @@
         <v>-4161811.8775906</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.858</v>
+      </c>
       <c r="J47" t="n">
         <v>5.84</v>
       </c>
@@ -2249,9 +2293,11 @@
         <v>-4161275.0104906</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5.863</v>
+      </c>
       <c r="J48" t="n">
         <v>5.84</v>
       </c>
@@ -4043,7 +4089,7 @@
         <v>2597928.717958615</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
@@ -4082,7 +4128,7 @@
         <v>2419518.286658615</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
@@ -4121,7 +4167,7 @@
         <v>2789662.567858615</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
@@ -4160,7 +4206,7 @@
         <v>2792084.567858615</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
@@ -4199,7 +4245,7 @@
         <v>2791680.190658615</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
@@ -4238,7 +4284,7 @@
         <v>2550884.289258615</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
@@ -4277,7 +4323,7 @@
         <v>2550594.095158615</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
@@ -4285,11 +4331,11 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>1.02222602739726</v>
       </c>
       <c r="M100" t="inlineStr"/>
     </row>
@@ -4316,17 +4362,11 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4355,17 +4395,11 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4394,17 +4428,11 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4433,17 +4461,11 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4472,17 +4494,11 @@
         <v>1657669.702358615</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4511,17 +4527,11 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4550,17 +4560,11 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4589,17 +4593,11 @@
         <v>2070779.163258615</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4628,17 +4626,11 @@
         <v>1883963.047158615</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4667,17 +4659,11 @@
         <v>2055648.660658615</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4706,17 +4692,11 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4745,17 +4725,11 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4784,17 +4758,11 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4823,17 +4791,11 @@
         <v>2150351.194058615</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4862,17 +4824,11 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4901,17 +4857,11 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4940,17 +4890,11 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4979,17 +4923,11 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5018,17 +4956,11 @@
         <v>1532055.872458615</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5060,14 +4992,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5096,17 +5022,11 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5138,14 +5058,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5177,14 +5091,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +5124,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5255,14 +5157,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +5190,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5333,14 +5223,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5372,14 +5256,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5411,14 +5289,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5489,14 +5355,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5525,17 +5385,11 @@
         <v>553315.9189586153</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5564,17 +5418,11 @@
         <v>553315.9189586153</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5603,17 +5451,11 @@
         <v>739536.4836586153</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5642,17 +5484,11 @@
         <v>740536.4836586153</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5681,17 +5517,11 @@
         <v>337814.1477586153</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5720,17 +5550,11 @@
         <v>178957.4497586153</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5759,17 +5583,11 @@
         <v>119907.0362586153</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5798,17 +5616,11 @@
         <v>120203.4074586153</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5837,17 +5649,11 @@
         <v>417800.8576586153</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5876,17 +5682,11 @@
         <v>579046.4638586153</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5915,17 +5715,11 @@
         <v>300956.9222586153</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5954,17 +5748,11 @@
         <v>301044.9222586153</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5993,17 +5781,11 @@
         <v>26122.41715861525</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6035,14 +5817,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6074,14 +5850,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6113,14 +5883,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6152,14 +5916,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6191,14 +5949,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6230,14 +5982,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6269,14 +6015,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6308,14 +6048,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6347,14 +6081,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6386,14 +6114,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6425,14 +6147,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6464,14 +6180,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6503,14 +6213,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6542,14 +6246,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6581,14 +6279,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6620,14 +6312,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6659,14 +6345,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +6378,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6737,14 +6411,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6776,14 +6444,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6815,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6854,14 +6510,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6893,14 +6543,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6932,14 +6576,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6971,14 +6609,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7010,14 +6642,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7049,14 +6675,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7088,14 +6708,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7127,14 +6741,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7166,14 +6774,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7205,14 +6807,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7244,14 +6840,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7283,14 +6873,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7322,14 +6906,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7361,14 +6939,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7400,14 +6972,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7439,14 +7005,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7478,14 +7038,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7517,14 +7071,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7556,14 +7104,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7595,14 +7137,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7634,14 +7170,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7673,14 +7203,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7712,14 +7236,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7751,14 +7269,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7790,14 +7302,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7829,14 +7335,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7868,14 +7368,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7907,14 +7401,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7946,14 +7434,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7985,14 +7467,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8024,14 +7500,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8063,14 +7533,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8102,14 +7566,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8141,14 +7599,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8180,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8219,14 +7665,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8258,14 +7698,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8297,14 +7731,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8336,14 +7764,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8375,14 +7797,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8414,14 +7830,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8453,14 +7863,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8492,14 +7896,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8531,14 +7929,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8570,14 +7962,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8609,14 +7995,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8648,14 +8028,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8687,14 +8061,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8726,14 +8094,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8765,14 +8127,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8804,14 +8160,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8843,14 +8193,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8882,14 +8226,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8921,14 +8259,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8960,14 +8292,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8999,14 +8325,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9038,14 +8358,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9077,14 +8391,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9116,14 +8424,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9155,14 +8457,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9194,14 +8490,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9233,14 +8523,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9272,14 +8556,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9311,14 +8589,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9350,14 +8622,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9389,14 +8655,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9428,14 +8688,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9467,14 +8721,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9506,14 +8754,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9545,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9584,14 +8820,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9623,14 +8853,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9662,14 +8886,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9701,14 +8919,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9740,14 +8952,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9779,14 +8985,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9818,14 +9018,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9857,14 +9051,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9896,14 +9084,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9935,14 +9117,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9974,14 +9150,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10013,14 +9183,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10052,14 +9216,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10091,14 +9249,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10130,14 +9282,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10169,14 +9315,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10208,14 +9348,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10247,14 +9381,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10286,14 +9414,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10325,14 +9447,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10364,14 +9480,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10403,14 +9513,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10442,14 +9546,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10481,14 +9579,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10520,14 +9612,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10559,14 +9645,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10598,14 +9678,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10637,14 +9711,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10676,14 +9744,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10715,14 +9777,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10754,14 +9810,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10793,14 +9843,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10832,14 +9876,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10871,14 +9909,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10910,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10946,19 +9972,13 @@
         <v>2932443.934958614</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>1.013835616438356</v>
+        <v>1</v>
       </c>
       <c r="M271" t="inlineStr"/>
     </row>
@@ -11084,7 +10104,7 @@
         <v>3061680.678558615</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11117,7 +10137,7 @@
         <v>3111938.801811996</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11150,7 +10170,7 @@
         <v>3108490.846411996</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11183,7 +10203,7 @@
         <v>3138544.400543807</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11216,7 +10236,7 @@
         <v>3138456.400543807</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11315,7 +10335,7 @@
         <v>2754380.670497188</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11348,7 +10368,7 @@
         <v>2754468.670497188</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11381,7 +10401,7 @@
         <v>2291679.915061801</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11414,7 +10434,7 @@
         <v>2291847.531561801</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11711,7 +10731,7 @@
         <v>2191543.202961802</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11777,7 +10797,7 @@
         <v>1931504.111361802</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11810,7 +10830,7 @@
         <v>1946587.030361802</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11843,7 +10863,7 @@
         <v>1946587.030361802</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11876,7 +10896,7 @@
         <v>2257365.475861802</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11909,7 +10929,7 @@
         <v>1891148.705461802</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11942,7 +10962,7 @@
         <v>1941324.705461802</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11975,7 +10995,7 @@
         <v>1941324.705461802</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12008,7 +11028,7 @@
         <v>1941236.705461802</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12041,7 +11061,7 @@
         <v>1472350.114361802</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12074,7 +11094,7 @@
         <v>1472526.114361802</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12107,7 +11127,7 @@
         <v>1279242.187961802</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12140,7 +11160,7 @@
         <v>1559221.137661802</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -15704,7 +14724,7 @@
         <v>-367746.8617569812</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16298,7 +15318,7 @@
         <v>-1636214.097356981</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16397,7 +15417,7 @@
         <v>-1134627.147256981</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16430,7 +15450,7 @@
         <v>-867915.5373842963</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16463,7 +15483,7 @@
         <v>-692758.0577842963</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16496,7 +15516,7 @@
         <v>126259.9684157036</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16529,7 +15549,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16562,7 +15582,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16595,7 +15615,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16628,7 +15648,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16661,7 +15681,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16694,7 +15714,7 @@
         <v>506973.2342157036</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16727,7 +15747,7 @@
         <v>506712.5908157036</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16760,7 +15780,7 @@
         <v>506538.8202157036</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16793,7 +15813,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16826,7 +15846,7 @@
         <v>309142.9300157037</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16859,7 +15879,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16892,7 +15912,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16925,7 +15945,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16958,7 +15978,7 @@
         <v>-127649.2616842963</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16991,7 +16011,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17024,7 +16044,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17057,7 +16077,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17090,7 +16110,7 @@
         <v>-340838.6161842963</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17123,7 +16143,7 @@
         <v>163731.2486157037</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17156,7 +16176,7 @@
         <v>202207.6145157037</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17189,7 +16209,7 @@
         <v>-151521.9226842964</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17222,7 +16242,7 @@
         <v>207735.3793157037</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17255,7 +16275,7 @@
         <v>-24102.75028429631</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17288,7 +16308,7 @@
         <v>-24549.91288429631</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17321,7 +16341,7 @@
         <v>-299034.8743842963</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17354,7 +16374,7 @@
         <v>-361373.6837842963</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17387,7 +16407,7 @@
         <v>-373823.0740842962</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17420,7 +16440,7 @@
         <v>-351285.6836842963</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17453,7 +16473,7 @@
         <v>-907027.4719842963</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17486,7 +16506,7 @@
         <v>-600880.7616842964</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17519,7 +16539,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17552,7 +16572,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17585,7 +16605,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17651,7 +16671,7 @@
         <v>195436.0991157036</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17717,7 +16737,7 @@
         <v>503217.1145157036</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17750,7 +16770,7 @@
         <v>544048.0176157036</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17783,7 +16803,7 @@
         <v>484048.0176157036</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17816,7 +16836,7 @@
         <v>484136.0176157036</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17849,7 +16869,7 @@
         <v>69835.58301570365</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17882,7 +16902,7 @@
         <v>69923.58301570365</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17915,7 +16935,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17948,7 +16968,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17981,7 +17001,7 @@
         <v>-113444.8083842963</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18014,7 +17034,7 @@
         <v>-442492.4604842963</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18047,7 +17067,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18080,7 +17100,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18113,7 +17133,7 @@
         <v>-442404.4604842963</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18146,7 +17166,7 @@
         <v>-848802.5039842963</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18179,7 +17199,7 @@
         <v>-852568.6299842964</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18212,7 +17232,7 @@
         <v>-1018527.826284296</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18245,7 +17265,7 @@
         <v>-1017760.264284296</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18278,7 +17298,7 @@
         <v>-1017760.264284296</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18311,7 +17331,7 @@
         <v>-1017760.264284296</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18344,7 +17364,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18377,7 +17397,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18410,7 +17430,7 @@
         <v>-1016901.081784296</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18443,7 +17463,7 @@
         <v>-1304560.130284296</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18476,7 +17496,7 @@
         <v>-1023819.270684296</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18509,7 +17529,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18542,7 +17562,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18575,7 +17595,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18608,7 +17628,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18641,7 +17661,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18674,7 +17694,7 @@
         <v>-1024206.609284296</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18707,7 +17727,7 @@
         <v>-1024294.609284296</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18740,7 +17760,7 @@
         <v>-1399189.389784296</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18773,7 +17793,7 @@
         <v>-1465394.684084296</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18806,7 +17826,7 @@
         <v>-1465130.684084296</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18839,7 +17859,7 @@
         <v>-1803039.916984296</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18872,7 +17892,7 @@
         <v>-2293232.958284296</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18905,7 +17925,7 @@
         <v>-2292744.556184296</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18938,7 +17958,7 @@
         <v>-2564820.748484296</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18971,7 +17991,7 @@
         <v>-2130930.138884296</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19004,7 +18024,7 @@
         <v>-1872704.244784296</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19037,7 +18057,7 @@
         <v>-1872704.244784296</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19070,7 +18090,7 @@
         <v>-1872704.244784296</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19103,7 +18123,7 @@
         <v>-1964275.015084296</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19136,7 +18156,7 @@
         <v>-1765520.872284296</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19169,7 +18189,7 @@
         <v>-2089816.911584296</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19202,7 +18222,7 @@
         <v>-2089727.315184296</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19235,7 +18255,7 @@
         <v>-2089727.315184296</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19268,7 +18288,7 @@
         <v>-2089639.315184296</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19301,7 +18321,7 @@
         <v>-2124557.735084296</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19334,7 +18354,7 @@
         <v>-2459100.062384296</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19367,7 +18387,7 @@
         <v>-2459100.062384296</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19400,7 +18420,7 @@
         <v>-2559100.062384296</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19433,7 +18453,7 @@
         <v>-2188061.719484296</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19466,7 +18486,7 @@
         <v>-2188061.719484296</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19499,7 +18519,7 @@
         <v>-2187743.228084296</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19532,7 +18552,7 @@
         <v>-1894779.281184296</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19565,7 +18585,7 @@
         <v>-2111511.345384296</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19598,7 +18618,7 @@
         <v>-2211280.853984295</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19631,7 +18651,7 @@
         <v>-2498859.696884295</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19664,7 +18684,7 @@
         <v>-2476480.185084295</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19697,7 +18717,7 @@
         <v>-2193219.137784296</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19730,7 +18750,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19763,7 +18783,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19796,7 +18816,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19829,7 +18849,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19862,7 +18882,7 @@
         <v>-1507263.072384296</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19895,7 +18915,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19928,7 +18948,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19961,7 +18981,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19994,7 +19014,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20027,7 +19047,7 @@
         <v>-1491644.648084296</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20060,7 +19080,7 @@
         <v>-1491913.174184296</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20093,7 +19113,7 @@
         <v>-1770281.701984296</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20126,7 +19146,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20159,7 +19179,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20192,7 +19212,7 @@
         <v>-2382774.378384296</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20225,7 +19245,7 @@
         <v>-2382946.307484296</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20258,7 +19278,7 @@
         <v>-2195282.239284296</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20291,7 +19311,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20324,7 +19344,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20357,7 +19377,7 @@
         <v>-2264042.279984296</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20390,7 +19410,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20423,7 +19443,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20456,7 +19476,7 @@
         <v>-2343625.116184296</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20489,7 +19509,7 @@
         <v>-1979296.084884296</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20522,7 +19542,7 @@
         <v>-1610021.212384296</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20555,7 +19575,7 @@
         <v>-1991749.955384296</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20588,7 +19608,7 @@
         <v>-2326594.720484296</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20621,7 +19641,7 @@
         <v>-2325094.720484296</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20654,7 +19674,7 @@
         <v>-2481955.905684296</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20687,7 +19707,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20720,7 +19740,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20753,7 +19773,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20786,7 +19806,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20819,7 +19839,7 @@
         <v>-2968324.300984296</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20852,7 +19872,7 @@
         <v>-4646203.997757386</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20885,7 +19905,7 @@
         <v>-4352740.623057387</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20918,7 +19938,7 @@
         <v>-5425191.024157386</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20951,7 +19971,7 @@
         <v>-4817174.724957386</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20984,7 +20004,7 @@
         <v>-4992440.812257386</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21017,7 +20037,7 @@
         <v>-5020271.812257386</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21050,7 +20070,7 @@
         <v>-5337319.451257386</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21083,7 +20103,7 @@
         <v>-5737424.339757387</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21116,7 +20136,7 @@
         <v>-5468484.543557387</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21149,7 +20169,7 @@
         <v>-5148845.893557386</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21182,7 +20202,7 @@
         <v>-4908782.291757386</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21215,7 +20235,7 @@
         <v>-4907698.579657386</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21248,7 +20268,7 @@
         <v>-5133002.129557386</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21281,7 +20301,7 @@
         <v>-5328302.129557386</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21314,7 +20334,7 @@
         <v>-5608218.882857386</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21347,7 +20367,7 @@
         <v>-5608133.882857386</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21479,7 +20499,7 @@
         <v>-5972226.209557386</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21611,7 +20631,7 @@
         <v>-6646350.273657386</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21743,7 +20763,7 @@
         <v>-5188036.846457386</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -23591,7 +22611,7 @@
         <v>-6733970.119781815</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -26110,6 +25130,6 @@
       <c r="M730" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest XSR.xlsx
+++ b/BackTest/2020-01-21 BackTest XSR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3489938.519290599</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-3489938.519290599</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.838</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.838</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-3202803.199290599</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.838</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.838</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-2863719.441190599</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.839</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.838</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-2864350.859690599</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-2549868.486390599</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.839</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-2548903.095390599</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>-2545685.125890599</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.859</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>-2281958.491190599</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.891</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>-3167350.214390599</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.847</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,19 +847,11 @@
         <v>-3167350.214390599</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.839</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -964,19 +880,11 @@
         <v>-2737688.643590599</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.839</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,19 +913,11 @@
         <v>-2624896.468090599</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.843</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +946,11 @@
         <v>-2184614.059051887</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.899</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1090,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1126,17 +1012,11 @@
         <v>-1729260.0632906</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1168,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1207,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1243,17 +1111,11 @@
         <v>-2521961.7459906</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1285,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1321,19 +1177,11 @@
         <v>-3106240.549490599</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.902</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1365,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1404,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1443,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1482,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1521,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1560,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1596,19 +1408,11 @@
         <v>-3138277.0197906</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.856</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1637,19 +1441,11 @@
         <v>-3428083.0246906</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.869</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1678,19 +1474,11 @@
         <v>-3682517.5150906</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.864</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1719,19 +1507,11 @@
         <v>-3905292.9324906</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.859</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1760,19 +1540,11 @@
         <v>-4091626.8564906</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.858</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1573,11 @@
         <v>-4096226.4244906</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5.857</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1842,19 +1606,11 @@
         <v>-4096226.4244906</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.856</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1883,19 +1639,11 @@
         <v>-4386894.1646906</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.856</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1924,19 +1672,11 @@
         <v>-4355332.3076906</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.855</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1965,19 +1705,11 @@
         <v>-4355332.3076906</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5.856</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2006,19 +1738,11 @@
         <v>-4355242.2180906</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.856</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2047,19 +1771,11 @@
         <v>-4355242.2180906</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.857</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2088,19 +1804,11 @@
         <v>-4355242.2180906</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.857</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2129,19 +1837,11 @@
         <v>-4175958.7511906</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.857</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2170,19 +1870,11 @@
         <v>-4175958.7511906</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.859</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2211,19 +1903,11 @@
         <v>-4447910.2471906</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.859</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2252,19 +1936,11 @@
         <v>-4161811.8775906</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.858</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2293,19 +1969,11 @@
         <v>-4161275.0104906</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2337,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2376,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2415,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2454,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2493,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2532,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2571,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2610,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2649,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2688,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2727,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2766,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2805,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2844,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2883,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2922,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2961,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3000,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3039,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3078,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3117,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3156,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3195,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3234,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3273,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3312,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3351,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3390,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3429,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3465,17 +2959,11 @@
         <v>680936.8951093997</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3504,17 +2992,11 @@
         <v>681736.8951093997</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3543,17 +3025,11 @@
         <v>1067558.6756094</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3582,17 +3058,11 @@
         <v>1185686.733509399</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3621,17 +3091,11 @@
         <v>1187149.835109399</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3660,17 +3124,11 @@
         <v>1613719.723309399</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3699,17 +3157,11 @@
         <v>1613719.723309399</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3738,17 +3190,11 @@
         <v>2107330.928409399</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3780,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3819,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3858,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3897,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3936,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3975,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4014,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4053,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4092,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4131,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4170,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4209,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4287,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4323,19 +3685,13 @@
         <v>2550594.095158615</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>1.02222602739726</v>
+        <v>1</v>
       </c>
       <c r="M100" t="inlineStr"/>
     </row>
@@ -4362,7 +3718,7 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4395,7 +3751,7 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4428,7 +3784,7 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4461,7 +3817,7 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4494,7 +3850,7 @@
         <v>1657669.702358615</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4527,7 +3883,7 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4560,7 +3916,7 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4593,7 +3949,7 @@
         <v>2070779.163258615</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4626,7 +3982,7 @@
         <v>1883963.047158615</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4659,7 +4015,7 @@
         <v>2055648.660658615</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4692,7 +4048,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4725,7 +4081,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4758,7 +4114,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4791,7 +4147,7 @@
         <v>2150351.194058615</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4824,7 +4180,7 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4857,7 +4213,7 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4890,7 +4246,7 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4923,7 +4279,7 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4956,7 +4312,7 @@
         <v>1532055.872458615</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5022,7 +4378,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5385,7 +4741,7 @@
         <v>553315.9189586153</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5418,7 +4774,7 @@
         <v>553315.9189586153</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5451,7 +4807,7 @@
         <v>739536.4836586153</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5484,7 +4840,7 @@
         <v>740536.4836586153</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5517,7 +4873,7 @@
         <v>337814.1477586153</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5550,7 +4906,7 @@
         <v>178957.4497586153</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5583,7 +4939,7 @@
         <v>119907.0362586153</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5616,7 +4972,7 @@
         <v>120203.4074586153</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5649,7 +5005,7 @@
         <v>417800.8576586153</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5682,7 +5038,7 @@
         <v>579046.4638586153</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5715,7 +5071,7 @@
         <v>300956.9222586153</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5748,7 +5104,7 @@
         <v>301044.9222586153</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5781,7 +5137,7 @@
         <v>26122.41715861525</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -9180,7 +8536,7 @@
         <v>3120255.593658615</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9213,7 +8569,7 @@
         <v>3120079.593658615</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9246,7 +8602,7 @@
         <v>3368418.783658615</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9279,7 +8635,7 @@
         <v>3435770.189658615</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9312,7 +8668,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9345,7 +8701,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9378,7 +8734,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9411,7 +8767,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9444,7 +8800,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9477,7 +8833,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9510,7 +8866,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9543,7 +8899,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9576,7 +8932,7 @@
         <v>3500346.576558615</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9609,7 +8965,7 @@
         <v>3500346.576558615</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9642,7 +8998,7 @@
         <v>3459436.149258615</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9807,7 +9163,7 @@
         <v>3746698.414458615</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9840,7 +9196,7 @@
         <v>3300815.715258615</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9873,7 +9229,7 @@
         <v>3300903.715258615</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9906,7 +9262,7 @@
         <v>3289201.670558615</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9939,7 +9295,7 @@
         <v>3299201.670558615</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9972,7 +9328,7 @@
         <v>2932443.934958614</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10104,7 +9460,7 @@
         <v>3061680.678558615</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10170,7 +9526,7 @@
         <v>3108490.846411996</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10203,7 +9559,7 @@
         <v>3138544.400543807</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10731,7 +10087,7 @@
         <v>2191543.202961802</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10797,7 +10153,7 @@
         <v>1931504.111361802</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10830,7 +10186,7 @@
         <v>1946587.030361802</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10863,7 +10219,7 @@
         <v>1946587.030361802</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10896,7 +10252,7 @@
         <v>2257365.475861802</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10929,7 +10285,7 @@
         <v>1891148.705461802</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10962,7 +10318,7 @@
         <v>1941324.705461802</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10995,7 +10351,7 @@
         <v>1941324.705461802</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11028,7 +10384,7 @@
         <v>1941236.705461802</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11061,7 +10417,7 @@
         <v>1472350.114361802</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11094,7 +10450,7 @@
         <v>1472526.114361802</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11127,7 +10483,7 @@
         <v>1279242.187961802</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11160,7 +10516,7 @@
         <v>1559221.137661802</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -13041,7 +12397,7 @@
         <v>-2254880.644891848</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13074,7 +12430,7 @@
         <v>-2254880.644891848</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13107,7 +12463,7 @@
         <v>-2573206.898991848</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13140,7 +12496,7 @@
         <v>-2562789.358091848</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13437,7 +12793,7 @@
         <v>-1847777.22505851</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13470,7 +12826,7 @@
         <v>-1728420.50105851</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13503,7 +12859,7 @@
         <v>-1728420.50105851</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13734,7 +13090,7 @@
         <v>-2903405.57652517</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13767,7 +13123,7 @@
         <v>-2661683.21442517</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13800,7 +13156,7 @@
         <v>-2662225.21442517</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13833,7 +13189,7 @@
         <v>-2389997.22342517</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13866,7 +13222,7 @@
         <v>-1971599.951356981</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14724,7 +14080,7 @@
         <v>-367746.8617569812</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15318,7 +14674,7 @@
         <v>-1636214.097356981</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15417,7 +14773,7 @@
         <v>-1134627.147256981</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15450,7 +14806,7 @@
         <v>-867915.5373842963</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15483,7 +14839,7 @@
         <v>-692758.0577842963</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15516,7 +14872,7 @@
         <v>126259.9684157036</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15549,7 +14905,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15582,7 +14938,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15615,7 +14971,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15648,7 +15004,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15681,7 +15037,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15714,7 +15070,7 @@
         <v>506973.2342157036</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15747,7 +15103,7 @@
         <v>506712.5908157036</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15780,7 +15136,7 @@
         <v>506538.8202157036</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15813,7 +15169,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15846,7 +15202,7 @@
         <v>309142.9300157037</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15879,7 +15235,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15912,7 +15268,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15945,7 +15301,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15978,7 +15334,7 @@
         <v>-127649.2616842963</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16011,7 +15367,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16044,7 +15400,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16077,7 +15433,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16110,7 +15466,7 @@
         <v>-340838.6161842963</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16143,7 +15499,7 @@
         <v>163731.2486157037</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16176,7 +15532,7 @@
         <v>202207.6145157037</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16209,7 +15565,7 @@
         <v>-151521.9226842964</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16242,7 +15598,7 @@
         <v>207735.3793157037</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16275,7 +15631,7 @@
         <v>-24102.75028429631</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16308,7 +15664,7 @@
         <v>-24549.91288429631</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16341,7 +15697,7 @@
         <v>-299034.8743842963</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16374,7 +15730,7 @@
         <v>-361373.6837842963</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16407,7 +15763,7 @@
         <v>-373823.0740842962</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16440,7 +15796,7 @@
         <v>-351285.6836842963</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16473,7 +15829,7 @@
         <v>-907027.4719842963</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16506,7 +15862,7 @@
         <v>-600880.7616842964</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16539,7 +15895,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16572,7 +15928,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16605,7 +15961,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16671,7 +16027,7 @@
         <v>195436.0991157036</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16737,7 +16093,7 @@
         <v>503217.1145157036</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16770,7 +16126,7 @@
         <v>544048.0176157036</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16803,7 +16159,7 @@
         <v>484048.0176157036</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16836,7 +16192,7 @@
         <v>484136.0176157036</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16869,7 +16225,7 @@
         <v>69835.58301570365</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16902,7 +16258,7 @@
         <v>69923.58301570365</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16935,7 +16291,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16968,7 +16324,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17001,7 +16357,7 @@
         <v>-113444.8083842963</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17034,7 +16390,7 @@
         <v>-442492.4604842963</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17067,7 +16423,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17100,7 +16456,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17133,7 +16489,7 @@
         <v>-442404.4604842963</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17166,7 +16522,7 @@
         <v>-848802.5039842963</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17199,7 +16555,7 @@
         <v>-852568.6299842964</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17232,7 +16588,7 @@
         <v>-1018527.826284296</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17265,7 +16621,7 @@
         <v>-1017760.264284296</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17298,7 +16654,7 @@
         <v>-1017760.264284296</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17331,7 +16687,7 @@
         <v>-1017760.264284296</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17364,7 +16720,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17397,7 +16753,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17430,7 +16786,7 @@
         <v>-1016901.081784296</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17463,7 +16819,7 @@
         <v>-1304560.130284296</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17496,7 +16852,7 @@
         <v>-1023819.270684296</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17529,7 +16885,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17562,7 +16918,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17595,7 +16951,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17628,7 +16984,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17661,7 +17017,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17694,7 +17050,7 @@
         <v>-1024206.609284296</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17727,7 +17083,7 @@
         <v>-1024294.609284296</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17760,7 +17116,7 @@
         <v>-1399189.389784296</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17793,7 +17149,7 @@
         <v>-1465394.684084296</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17826,7 +17182,7 @@
         <v>-1465130.684084296</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17859,7 +17215,7 @@
         <v>-1803039.916984296</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17892,7 +17248,7 @@
         <v>-2293232.958284296</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17925,7 +17281,7 @@
         <v>-2292744.556184296</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17958,7 +17314,7 @@
         <v>-2564820.748484296</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17991,7 +17347,7 @@
         <v>-2130930.138884296</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18024,7 +17380,7 @@
         <v>-1872704.244784296</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18057,7 +17413,7 @@
         <v>-1872704.244784296</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18090,7 +17446,7 @@
         <v>-1872704.244784296</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18123,7 +17479,7 @@
         <v>-1964275.015084296</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18156,7 +17512,7 @@
         <v>-1765520.872284296</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18189,7 +17545,7 @@
         <v>-2089816.911584296</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18222,7 +17578,7 @@
         <v>-2089727.315184296</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18255,7 +17611,7 @@
         <v>-2089727.315184296</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18288,7 +17644,7 @@
         <v>-2089639.315184296</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18321,7 +17677,7 @@
         <v>-2124557.735084296</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18354,7 +17710,7 @@
         <v>-2459100.062384296</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18387,7 +17743,7 @@
         <v>-2459100.062384296</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18420,7 +17776,7 @@
         <v>-2559100.062384296</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18453,7 +17809,7 @@
         <v>-2188061.719484296</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18486,7 +17842,7 @@
         <v>-2188061.719484296</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18519,7 +17875,7 @@
         <v>-2187743.228084296</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18552,7 +17908,7 @@
         <v>-1894779.281184296</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18585,7 +17941,7 @@
         <v>-2111511.345384296</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18618,7 +17974,7 @@
         <v>-2211280.853984295</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18651,7 +18007,7 @@
         <v>-2498859.696884295</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18684,7 +18040,7 @@
         <v>-2476480.185084295</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18717,7 +18073,7 @@
         <v>-2193219.137784296</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18750,7 +18106,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18783,7 +18139,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18816,7 +18172,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18849,7 +18205,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18882,7 +18238,7 @@
         <v>-1507263.072384296</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18915,7 +18271,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18948,7 +18304,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18981,7 +18337,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19014,7 +18370,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19047,7 +18403,7 @@
         <v>-1491644.648084296</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19080,7 +18436,7 @@
         <v>-1491913.174184296</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19113,7 +18469,7 @@
         <v>-1770281.701984296</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19146,7 +18502,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19179,7 +18535,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19212,7 +18568,7 @@
         <v>-2382774.378384296</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19245,7 +18601,7 @@
         <v>-2382946.307484296</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19278,7 +18634,7 @@
         <v>-2195282.239284296</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19311,7 +18667,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19344,7 +18700,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19377,7 +18733,7 @@
         <v>-2264042.279984296</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19410,7 +18766,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19443,7 +18799,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19476,7 +18832,7 @@
         <v>-2343625.116184296</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19509,7 +18865,7 @@
         <v>-1979296.084884296</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19542,7 +18898,7 @@
         <v>-1610021.212384296</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19575,7 +18931,7 @@
         <v>-1991749.955384296</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19608,7 +18964,7 @@
         <v>-2326594.720484296</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19641,7 +18997,7 @@
         <v>-2325094.720484296</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19674,7 +19030,7 @@
         <v>-2481955.905684296</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19707,7 +19063,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19740,7 +19096,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19773,7 +19129,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19806,7 +19162,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19839,7 +19195,7 @@
         <v>-2968324.300984296</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19872,7 +19228,7 @@
         <v>-4646203.997757386</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19905,7 +19261,7 @@
         <v>-4352740.623057387</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19938,7 +19294,7 @@
         <v>-5425191.024157386</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19971,7 +19327,7 @@
         <v>-4817174.724957386</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20004,7 +19360,7 @@
         <v>-4992440.812257386</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20037,7 +19393,7 @@
         <v>-5020271.812257386</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20070,7 +19426,7 @@
         <v>-5337319.451257386</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20103,7 +19459,7 @@
         <v>-5737424.339757387</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20136,7 +19492,7 @@
         <v>-5468484.543557387</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20169,7 +19525,7 @@
         <v>-5148845.893557386</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20202,7 +19558,7 @@
         <v>-4908782.291757386</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20235,7 +19591,7 @@
         <v>-4907698.579657386</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20268,7 +19624,7 @@
         <v>-5133002.129557386</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20301,7 +19657,7 @@
         <v>-5328302.129557386</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20334,7 +19690,7 @@
         <v>-5608218.882857386</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22050,7 +21406,7 @@
         <v>-4844311.959081816</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22083,7 +21439,7 @@
         <v>-4844221.959081816</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22743,10 +22099,14 @@
         <v>-7387538.509481815</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="J658" t="n">
+        <v>5.909</v>
+      </c>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
@@ -22779,8 +22139,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22812,8 +22178,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22845,8 +22217,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22878,8 +22256,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22911,8 +22295,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22944,8 +22334,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22977,8 +22373,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23010,8 +22412,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23043,8 +22451,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23076,8 +22490,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23109,8 +22529,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23142,8 +22568,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23175,8 +22607,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23208,8 +22646,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23241,8 +22685,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23274,8 +22724,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23304,11 +22760,19 @@
         <v>-7784566.649714017</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>5.897</v>
+      </c>
+      <c r="J675" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23337,11 +22801,19 @@
         <v>-7524992.386514017</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="J676" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23370,11 +22842,19 @@
         <v>-7525513.386514017</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>5.894</v>
+      </c>
+      <c r="J677" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23403,11 +22883,19 @@
         <v>-7525513.386514017</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="J678" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23436,11 +22924,19 @@
         <v>-7371188.190514017</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="J679" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23469,11 +22965,19 @@
         <v>-7031824.505714017</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="J680" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23502,11 +23006,19 @@
         <v>-7031736.505714017</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="J681" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23538,8 +23050,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23568,11 +23086,19 @@
         <v>-7442418.612614017</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="J683" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23604,8 +23130,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23637,8 +23169,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23670,8 +23208,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23703,8 +23247,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23736,8 +23286,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23769,8 +23325,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23802,8 +23364,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23835,8 +23403,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23868,8 +23442,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23901,8 +23481,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23934,8 +23520,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23967,8 +23559,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24000,8 +23598,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24033,8 +23637,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24066,8 +23676,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24099,8 +23715,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24132,8 +23754,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24165,8 +23793,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24198,8 +23832,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24228,11 +23868,19 @@
         <v>-8509900.925214019</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="J703" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24264,8 +23912,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24297,8 +23951,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24330,8 +23990,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24360,11 +24026,19 @@
         <v>-8293867.606814018</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J707" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24393,11 +24067,19 @@
         <v>-8135270.127914019</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>5.861</v>
+      </c>
+      <c r="J708" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24429,8 +24111,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24462,8 +24150,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24495,8 +24189,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24528,8 +24228,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24561,8 +24267,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24594,8 +24306,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24627,8 +24345,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24660,8 +24384,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24693,8 +24423,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24726,8 +24462,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24759,8 +24501,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24792,8 +24540,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24825,8 +24579,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24858,8 +24618,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24891,8 +24657,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24924,8 +24696,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24957,8 +24735,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24990,8 +24774,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25023,8 +24813,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25056,8 +24852,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25089,8 +24891,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25122,14 +24930,20 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>5.909</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
       <c r="M730" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest XSR.xlsx
+++ b/BackTest/2020-01-21 BackTest XSR.xlsx
@@ -517,10 +517,14 @@
         <v>-3202803.199290599</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.838</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.838</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -553,8 +557,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5.838</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -586,8 +596,14 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>5.838</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -1012,7 +1028,7 @@
         <v>-1729260.0632906</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1127,7 @@
         <v>-2521961.7459906</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2959,7 +2975,7 @@
         <v>680936.8951093997</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3008,7 @@
         <v>681736.8951093997</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>1067558.6756094</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3074,7 @@
         <v>1185686.733509399</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3107,7 @@
         <v>1187149.835109399</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3140,7 @@
         <v>1613719.723309399</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3190,7 +3206,7 @@
         <v>2107330.928409399</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3272,7 @@
         <v>2155860.303709399</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3355,7 +3371,7 @@
         <v>2191425.44307035</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3404,7 @@
         <v>2368152.82747035</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3437,7 @@
         <v>2800878.161758615</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3470,7 @@
         <v>2597928.717958615</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3503,7 @@
         <v>2597928.717958615</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3536,7 @@
         <v>2419518.286658615</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3569,7 @@
         <v>2789662.567858615</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3602,7 @@
         <v>2792084.567858615</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3635,7 @@
         <v>2791680.190658615</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3668,7 @@
         <v>2550884.289258615</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3701,7 @@
         <v>2550594.095158615</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3734,7 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3767,7 @@
         <v>2193979.744958615</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3800,7 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3833,7 @@
         <v>1968916.419958615</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3866,7 @@
         <v>1657669.702358615</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3899,7 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3932,7 @@
         <v>1683070.935158615</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3965,7 @@
         <v>2070779.163258615</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3998,7 @@
         <v>1883963.047158615</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4031,7 @@
         <v>2055648.660658615</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4064,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4097,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4130,7 @@
         <v>2485429.984958615</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4163,7 @@
         <v>2150351.194058615</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4196,7 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4229,7 @@
         <v>1723871.579658615</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4262,7 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4295,7 @@
         <v>1533099.571158615</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4328,7 @@
         <v>1532055.872458615</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4361,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4394,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4427,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4460,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4493,7 @@
         <v>1531370.693258615</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -8536,7 +8552,7 @@
         <v>3120255.593658615</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8585,7 @@
         <v>3120079.593658615</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8618,7 @@
         <v>3368418.783658615</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8651,7 @@
         <v>3435770.189658615</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8684,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8717,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8750,7 @@
         <v>3877958.996358615</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8783,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8816,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8849,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8882,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8915,7 @@
         <v>3454989.005758615</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8948,7 @@
         <v>3500346.576558615</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8981,7 @@
         <v>3500346.576558615</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9014,7 @@
         <v>3459436.149258615</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9163,7 +9179,7 @@
         <v>3746698.414458615</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9212,7 @@
         <v>3300815.715258615</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9245,7 @@
         <v>3300903.715258615</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9278,7 @@
         <v>3289201.670558615</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9311,7 @@
         <v>3299201.670558615</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9344,7 @@
         <v>2932443.934958614</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9526,7 +9542,7 @@
         <v>3108490.846411996</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9575,7 @@
         <v>3138544.400543807</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -12397,7 +12413,7 @@
         <v>-2254880.644891848</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12446,7 @@
         <v>-2254880.644891848</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12479,7 @@
         <v>-2573206.898991848</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12512,7 @@
         <v>-2562789.358091848</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12793,7 +12809,7 @@
         <v>-1847777.22505851</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12842,7 @@
         <v>-1728420.50105851</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12875,7 @@
         <v>-1728420.50105851</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13090,7 +13106,7 @@
         <v>-2903405.57652517</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13139,7 @@
         <v>-2661683.21442517</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13172,7 @@
         <v>-2662225.21442517</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13205,7 @@
         <v>-2389997.22342517</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13238,7 @@
         <v>-1971599.951356981</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14872,7 +14888,7 @@
         <v>126259.9684157036</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14921,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14954,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14987,7 @@
         <v>151710.9720157036</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15020,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15053,7 @@
         <v>150305.9720157036</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15086,7 @@
         <v>506973.2342157036</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15119,7 @@
         <v>506712.5908157036</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15152,7 @@
         <v>506538.8202157036</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15185,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15218,7 @@
         <v>309142.9300157037</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15251,7 @@
         <v>309054.9300157037</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15284,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15317,7 @@
         <v>-135890.0994842963</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15350,7 @@
         <v>-127649.2616842963</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15383,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15416,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15449,7 @@
         <v>-128603.2616842963</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15482,7 @@
         <v>-340838.6161842963</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15515,7 @@
         <v>163731.2486157037</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15548,7 @@
         <v>202207.6145157037</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15581,7 @@
         <v>-151521.9226842964</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15614,7 @@
         <v>207735.3793157037</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15647,7 @@
         <v>-24102.75028429631</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15680,7 @@
         <v>-24549.91288429631</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15713,7 @@
         <v>-299034.8743842963</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15746,7 @@
         <v>-361373.6837842963</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15779,7 @@
         <v>-373823.0740842962</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15812,7 @@
         <v>-351285.6836842963</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15845,7 @@
         <v>-907027.4719842963</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15878,7 @@
         <v>-600880.7616842964</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15911,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15944,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15977,7 @@
         <v>-221279.5907842964</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +16010,7 @@
         <v>194154.4953157036</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16043,7 @@
         <v>195436.0991157036</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16076,7 @@
         <v>503767.1374157036</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16109,7 @@
         <v>503217.1145157036</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16142,7 @@
         <v>544048.0176157036</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16175,7 @@
         <v>484048.0176157036</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16208,7 @@
         <v>484136.0176157036</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16241,7 @@
         <v>69835.58301570365</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16274,7 @@
         <v>69923.58301570365</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16307,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16340,7 @@
         <v>-113356.8083842963</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16373,7 @@
         <v>-113444.8083842963</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16406,7 @@
         <v>-442492.4604842963</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16439,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16472,7 @@
         <v>-442316.4604842963</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16505,7 @@
         <v>-442404.4604842963</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16538,7 @@
         <v>-848802.5039842963</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16571,7 @@
         <v>-852568.6299842964</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16604,7 @@
         <v>-1018527.826284296</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16687,7 +16703,7 @@
         <v>-1017760.264284296</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16736,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16769,7 @@
         <v>-1016813.081784296</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16802,7 @@
         <v>-1016901.081784296</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16835,7 @@
         <v>-1304560.130284296</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16868,7 @@
         <v>-1023819.270684296</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16918,7 +16934,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16967,7 @@
         <v>-1023731.270684296</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +17000,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17033,7 @@
         <v>-1024734.609284296</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17066,7 @@
         <v>-1024206.609284296</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17099,7 @@
         <v>-1024294.609284296</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17149,7 +17165,7 @@
         <v>-1465394.684084296</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18205,7 +18221,7 @@
         <v>-2175110.008384296</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18271,7 +18287,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18320,7 @@
         <v>-1362423.682984296</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18353,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18386,7 @@
         <v>-1328371.786584296</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18419,7 @@
         <v>-1491644.648084296</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18452,7 @@
         <v>-1491913.174184296</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18485,7 @@
         <v>-1770281.701984296</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18518,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18551,7 @@
         <v>-2027116.373784296</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18584,7 @@
         <v>-2382774.378384296</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18617,7 @@
         <v>-2382946.307484296</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18650,7 @@
         <v>-2195282.239284296</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18683,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18716,7 @@
         <v>-2264256.847784296</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18749,7 @@
         <v>-2264042.279984296</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18782,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18815,7 @@
         <v>-2023864.868284296</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18848,7 @@
         <v>-2343625.116184296</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18931,7 +18947,7 @@
         <v>-1991749.955384296</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18980,7 @@
         <v>-2326594.720484296</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +19013,7 @@
         <v>-2325094.720484296</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19046,7 @@
         <v>-2481955.905684296</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19079,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19112,7 @@
         <v>-2532717.384584296</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19145,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19178,7 @@
         <v>-2879030.197284296</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19211,7 @@
         <v>-2968324.300984296</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21406,7 +21422,7 @@
         <v>-4844311.959081816</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21455,7 @@
         <v>-4844221.959081816</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22099,14 +22115,10 @@
         <v>-7387538.509481815</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="J658" t="n">
-        <v>5.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
@@ -22139,14 +22151,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22178,1317 +22184,1103 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K660" t="inlineStr">
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="n">
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="C661" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D661" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E661" t="n">
+        <v>5.902</v>
+      </c>
+      <c r="F661" t="n">
+        <v>390000</v>
+      </c>
+      <c r="G661" t="n">
+        <v>-7171170.046481815</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="n">
+        <v>1</v>
+      </c>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C662" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D662" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E662" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F662" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-7171170.046481815</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>5.908</v>
+      </c>
+      <c r="C663" t="n">
+        <v>5.908</v>
+      </c>
+      <c r="D663" t="n">
+        <v>5.908</v>
+      </c>
+      <c r="E663" t="n">
+        <v>5.908</v>
+      </c>
+      <c r="F663" t="n">
+        <v>383378.8785</v>
+      </c>
+      <c r="G663" t="n">
+        <v>-7554548.924981815</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="n">
+        <v>1</v>
+      </c>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="C664" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="D664" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="E664" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="F664" t="n">
+        <v>291437.5713</v>
+      </c>
+      <c r="G664" t="n">
+        <v>-7845986.496281815</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="n">
+        <v>1</v>
+      </c>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="C665" t="n">
+        <v>5.906</v>
+      </c>
+      <c r="D665" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="E665" t="n">
+        <v>5.906</v>
+      </c>
+      <c r="F665" t="n">
+        <v>207390.7383</v>
+      </c>
+      <c r="G665" t="n">
+        <v>-8053377.234581815</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
+      <c r="M665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="C666" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D666" t="n">
+        <v>5.907</v>
+      </c>
+      <c r="E666" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F666" t="n">
+        <v>541284.4665</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-8594661.701081814</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="n">
+        <v>1</v>
+      </c>
+      <c r="M666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="C667" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="D667" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="E667" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="F667" t="n">
+        <v>422084.1059</v>
+      </c>
+      <c r="G667" t="n">
+        <v>-8172577.595181814</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="n">
+        <v>1</v>
+      </c>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C668" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D668" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E668" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F668" t="n">
+        <v>204.2622</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-8172373.332981815</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="C669" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="D669" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="E669" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="F669" t="n">
+        <v>181327.6241</v>
+      </c>
+      <c r="G669" t="n">
+        <v>-8353700.957081814</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="C670" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="D670" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="E670" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="F670" t="n">
+        <v>330.2351</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-8353700.957081814</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="C671" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="D671" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="E671" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="F671" t="n">
+        <v>429945.8419</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-7923755.115181814</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C672" t="n">
+        <v>5.897</v>
+      </c>
+      <c r="D672" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E672" t="n">
+        <v>5.897</v>
+      </c>
+      <c r="F672" t="n">
+        <v>368814.2842</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-7554940.830981814</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C673" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D673" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E673" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F673" t="n">
+        <v>228.6440677966102</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-7554712.186914017</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C674" t="n">
+        <v>5.897</v>
+      </c>
+      <c r="D674" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E674" t="n">
+        <v>5.897</v>
+      </c>
+      <c r="F674" t="n">
+        <v>37663.5051</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-7592375.692014017</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>5.894</v>
+      </c>
+      <c r="C675" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="D675" t="n">
+        <v>5.894</v>
+      </c>
+      <c r="E675" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="F675" t="n">
+        <v>192190.9577</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-7784566.649714017</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>5.874</v>
+      </c>
+      <c r="C676" t="n">
+        <v>5.894</v>
+      </c>
+      <c r="D676" t="n">
+        <v>5.894</v>
+      </c>
+      <c r="E676" t="n">
+        <v>5.874</v>
+      </c>
+      <c r="F676" t="n">
+        <v>259574.2632</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-7524992.386514017</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="C677" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="D677" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="E677" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="F677" t="n">
+        <v>521</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-7525513.386514017</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="C678" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="D678" t="n">
+        <v>5.894</v>
+      </c>
+      <c r="E678" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="F678" t="n">
+        <v>261</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-7525513.386514017</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="C679" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="D679" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="E679" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="F679" t="n">
+        <v>154325.196</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-7371188.190514017</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="C680" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="D680" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="E680" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="F680" t="n">
+        <v>339363.6848</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-7031824.505714017</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="C681" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="D681" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="E681" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="F681" t="n">
+        <v>88</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-7031736.505714017</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="C682" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="D682" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="E682" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="F682" t="n">
+        <v>411055.5395</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-7442792.045214017</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="C683" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="D683" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="E683" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="F683" t="n">
+        <v>373.4326</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-7442418.612614017</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="C684" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="D684" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="E684" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="F684" t="n">
+        <v>85</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-7442333.612614017</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C685" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="D685" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E685" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="F685" t="n">
+        <v>380285.1374</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-7822618.750014017</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="C686" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="D686" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="E686" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="F686" t="n">
+        <v>488.9918</v>
+      </c>
+      <c r="G686" t="n">
+        <v>-7822618.750014017</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>5.882</v>
+      </c>
+      <c r="C687" t="n">
+        <v>5.882</v>
+      </c>
+      <c r="D687" t="n">
+        <v>5.882</v>
+      </c>
+      <c r="E687" t="n">
+        <v>5.882</v>
+      </c>
+      <c r="F687" t="n">
+        <v>423945.4538</v>
+      </c>
+      <c r="G687" t="n">
+        <v>-8246564.203814018</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="C688" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="D688" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="E688" t="n">
+        <v>5.873</v>
+      </c>
+      <c r="F688" t="n">
+        <v>10088</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-8256652.203814018</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="C689" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="D689" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="E689" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="F689" t="n">
+        <v>283647.9596</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-7973004.244214018</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="C690" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="D690" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="E690" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="F690" t="n">
+        <v>165345.4778</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-7973004.244214018</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="C691" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="D691" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E691" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="F691" t="n">
+        <v>431314.3132</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-7973004.244214018</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="C692" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="D692" t="n">
+        <v>5.871</v>
+      </c>
+      <c r="E692" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="F692" t="n">
+        <v>211866.8667</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-8184871.110914018</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>5.877</v>
+      </c>
+      <c r="C693" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="D693" t="n">
+        <v>5.877</v>
+      </c>
+      <c r="E693" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="F693" t="n">
+        <v>302200.3267</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-8184871.110914018</v>
+      </c>
+      <c r="H693" t="n">
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>5.902</v>
-      </c>
-      <c r="C661" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D661" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E661" t="n">
-        <v>5.902</v>
-      </c>
-      <c r="F661" t="n">
-        <v>390000</v>
-      </c>
-      <c r="G661" t="n">
-        <v>-7171170.046481815</v>
-      </c>
-      <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L661" t="n">
-        <v>1</v>
-      </c>
-      <c r="M661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="C662" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D662" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="E662" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F662" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G662" t="n">
-        <v>-7171170.046481815</v>
-      </c>
-      <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L662" t="n">
-        <v>1</v>
-      </c>
-      <c r="M662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>5.908</v>
-      </c>
-      <c r="C663" t="n">
-        <v>5.908</v>
-      </c>
-      <c r="D663" t="n">
-        <v>5.908</v>
-      </c>
-      <c r="E663" t="n">
-        <v>5.908</v>
-      </c>
-      <c r="F663" t="n">
-        <v>383378.8785</v>
-      </c>
-      <c r="G663" t="n">
-        <v>-7554548.924981815</v>
-      </c>
-      <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L663" t="n">
-        <v>1</v>
-      </c>
-      <c r="M663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>5.907</v>
-      </c>
-      <c r="C664" t="n">
-        <v>5.907</v>
-      </c>
-      <c r="D664" t="n">
-        <v>5.907</v>
-      </c>
-      <c r="E664" t="n">
-        <v>5.907</v>
-      </c>
-      <c r="F664" t="n">
-        <v>291437.5713</v>
-      </c>
-      <c r="G664" t="n">
-        <v>-7845986.496281815</v>
-      </c>
-      <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L664" t="n">
-        <v>1</v>
-      </c>
-      <c r="M664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>5.907</v>
-      </c>
-      <c r="C665" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="D665" t="n">
-        <v>5.907</v>
-      </c>
-      <c r="E665" t="n">
-        <v>5.906</v>
-      </c>
-      <c r="F665" t="n">
-        <v>207390.7383</v>
-      </c>
-      <c r="G665" t="n">
-        <v>-8053377.234581815</v>
-      </c>
-      <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
-      <c r="M665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="n">
-        <v>5.907</v>
-      </c>
-      <c r="C666" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="D666" t="n">
-        <v>5.907</v>
-      </c>
-      <c r="E666" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F666" t="n">
-        <v>541284.4665</v>
-      </c>
-      <c r="G666" t="n">
-        <v>-8594661.701081814</v>
-      </c>
-      <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L666" t="n">
-        <v>1</v>
-      </c>
-      <c r="M666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="C667" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="D667" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="E667" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="F667" t="n">
-        <v>422084.1059</v>
-      </c>
-      <c r="G667" t="n">
-        <v>-8172577.595181814</v>
-      </c>
-      <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L667" t="n">
-        <v>1</v>
-      </c>
-      <c r="M667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C668" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D668" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E668" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F668" t="n">
-        <v>204.2622</v>
-      </c>
-      <c r="G668" t="n">
-        <v>-8172373.332981815</v>
-      </c>
-      <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="C669" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="D669" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="E669" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="F669" t="n">
-        <v>181327.6241</v>
-      </c>
-      <c r="G669" t="n">
-        <v>-8353700.957081814</v>
-      </c>
-      <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="C670" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="D670" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="E670" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="F670" t="n">
-        <v>330.2351</v>
-      </c>
-      <c r="G670" t="n">
-        <v>-8353700.957081814</v>
-      </c>
-      <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="C671" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="D671" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="E671" t="n">
-        <v>5.889</v>
-      </c>
-      <c r="F671" t="n">
-        <v>429945.8419</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-7923755.115181814</v>
-      </c>
-      <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C672" t="n">
-        <v>5.897</v>
-      </c>
-      <c r="D672" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E672" t="n">
-        <v>5.897</v>
-      </c>
-      <c r="F672" t="n">
-        <v>368814.2842</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-7554940.830981814</v>
-      </c>
-      <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C673" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D673" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E673" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F673" t="n">
-        <v>228.6440677966102</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-7554712.186914017</v>
-      </c>
-      <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C674" t="n">
-        <v>5.897</v>
-      </c>
-      <c r="D674" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E674" t="n">
-        <v>5.897</v>
-      </c>
-      <c r="F674" t="n">
-        <v>37663.5051</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-7592375.692014017</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>5.894</v>
-      </c>
-      <c r="C675" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="D675" t="n">
-        <v>5.894</v>
-      </c>
-      <c r="E675" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="F675" t="n">
-        <v>192190.9577</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-7784566.649714017</v>
-      </c>
-      <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>5.897</v>
-      </c>
-      <c r="J675" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>5.874</v>
-      </c>
-      <c r="C676" t="n">
-        <v>5.894</v>
-      </c>
-      <c r="D676" t="n">
-        <v>5.894</v>
-      </c>
-      <c r="E676" t="n">
-        <v>5.874</v>
-      </c>
-      <c r="F676" t="n">
-        <v>259574.2632</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-7524992.386514017</v>
-      </c>
-      <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="J676" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="C677" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="D677" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="E677" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="F677" t="n">
-        <v>521</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-7525513.386514017</v>
-      </c>
-      <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>5.894</v>
-      </c>
-      <c r="J677" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="C678" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="D678" t="n">
-        <v>5.894</v>
-      </c>
-      <c r="E678" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="F678" t="n">
-        <v>261</v>
-      </c>
-      <c r="G678" t="n">
-        <v>-7525513.386514017</v>
-      </c>
-      <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="J678" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="C679" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="D679" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="E679" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="F679" t="n">
-        <v>154325.196</v>
-      </c>
-      <c r="G679" t="n">
-        <v>-7371188.190514017</v>
-      </c>
-      <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="J679" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="C680" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="D680" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="E680" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="F680" t="n">
-        <v>339363.6848</v>
-      </c>
-      <c r="G680" t="n">
-        <v>-7031824.505714017</v>
-      </c>
-      <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="J680" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="C681" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="D681" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="E681" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="F681" t="n">
-        <v>88</v>
-      </c>
-      <c r="G681" t="n">
-        <v>-7031736.505714017</v>
-      </c>
-      <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="J681" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>5.892</v>
-      </c>
-      <c r="C682" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="D682" t="n">
-        <v>5.892</v>
-      </c>
-      <c r="E682" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="F682" t="n">
-        <v>411055.5395</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-7442792.045214017</v>
-      </c>
-      <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>5.892</v>
-      </c>
-      <c r="C683" t="n">
-        <v>5.892</v>
-      </c>
-      <c r="D683" t="n">
-        <v>5.892</v>
-      </c>
-      <c r="E683" t="n">
-        <v>5.892</v>
-      </c>
-      <c r="F683" t="n">
-        <v>373.4326</v>
-      </c>
-      <c r="G683" t="n">
-        <v>-7442418.612614017</v>
-      </c>
-      <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="J683" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="C684" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="D684" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="E684" t="n">
-        <v>5.893</v>
-      </c>
-      <c r="F684" t="n">
-        <v>85</v>
-      </c>
-      <c r="G684" t="n">
-        <v>-7442333.612614017</v>
-      </c>
-      <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C685" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="D685" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="E685" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="F685" t="n">
-        <v>380285.1374</v>
-      </c>
-      <c r="G685" t="n">
-        <v>-7822618.750014017</v>
-      </c>
-      <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="C686" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="D686" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="E686" t="n">
-        <v>5.886</v>
-      </c>
-      <c r="F686" t="n">
-        <v>488.9918</v>
-      </c>
-      <c r="G686" t="n">
-        <v>-7822618.750014017</v>
-      </c>
-      <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>5.882</v>
-      </c>
-      <c r="C687" t="n">
-        <v>5.882</v>
-      </c>
-      <c r="D687" t="n">
-        <v>5.882</v>
-      </c>
-      <c r="E687" t="n">
-        <v>5.882</v>
-      </c>
-      <c r="F687" t="n">
-        <v>423945.4538</v>
-      </c>
-      <c r="G687" t="n">
-        <v>-8246564.203814018</v>
-      </c>
-      <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="C688" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="D688" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="E688" t="n">
-        <v>5.873</v>
-      </c>
-      <c r="F688" t="n">
-        <v>10088</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-8256652.203814018</v>
-      </c>
-      <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="C689" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="D689" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="E689" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="F689" t="n">
-        <v>283647.9596</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-7973004.244214018</v>
-      </c>
-      <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="C690" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="D690" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="E690" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="F690" t="n">
-        <v>165345.4778</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-7973004.244214018</v>
-      </c>
-      <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="C691" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="D691" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E691" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="F691" t="n">
-        <v>431314.3132</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-7973004.244214018</v>
-      </c>
-      <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="C692" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="D692" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="E692" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="F692" t="n">
-        <v>211866.8667</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-8184871.110914018</v>
-      </c>
-      <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>5.877</v>
-      </c>
-      <c r="C693" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="D693" t="n">
-        <v>5.877</v>
-      </c>
-      <c r="E693" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="F693" t="n">
-        <v>302200.3267</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-8184871.110914018</v>
-      </c>
-      <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>5.909</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23517,12 +23309,12 @@
         <v>-7870500.408114018</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23556,12 +23348,12 @@
         <v>-8211354.911514018</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>5.867</v>
+      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23595,12 +23387,12 @@
         <v>-8210726.093514018</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>5.866</v>
+      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23634,12 +23426,12 @@
         <v>-8210120.855914018</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>5.867</v>
+      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23673,12 +23465,12 @@
         <v>-8040475.499914018</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>5.882</v>
+      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23712,12 +23504,12 @@
         <v>-8040808.499914018</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23751,12 +23543,12 @@
         <v>-8039304.534314019</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>5.889</v>
+      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23790,12 +23582,12 @@
         <v>-8198798.951614019</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23829,12 +23621,12 @@
         <v>-8198798.951614019</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>5.876</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23873,9 +23665,7 @@
       <c r="I703" t="n">
         <v>5.876</v>
       </c>
-      <c r="J703" t="n">
-        <v>5.909</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23909,12 +23699,12 @@
         <v>-8299213.785314019</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>5.862</v>
+      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23948,12 +23738,12 @@
         <v>-8299213.785314019</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23987,12 +23777,12 @@
         <v>-8459034.993414018</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>5.863</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24031,9 +23821,7 @@
       <c r="I707" t="n">
         <v>5.85</v>
       </c>
-      <c r="J707" t="n">
-        <v>5.909</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24072,9 +23860,7 @@
       <c r="I708" t="n">
         <v>5.861</v>
       </c>
-      <c r="J708" t="n">
-        <v>5.909</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24108,12 +23894,12 @@
         <v>-8179078.591914019</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24147,12 +23933,12 @@
         <v>-7760165.594614019</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>5.866</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24186,12 +23972,12 @@
         <v>-7454398.301814019</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24225,12 +24011,12 @@
         <v>-7605467.844214018</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24264,12 +24050,12 @@
         <v>-7605143.849914018</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>5.887</v>
+      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24303,12 +24089,12 @@
         <v>-7664148.465514018</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24342,12 +24128,12 @@
         <v>-7476157.448814019</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24381,12 +24167,12 @@
         <v>-7905074.098814019</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>5.892</v>
+      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24420,12 +24206,12 @@
         <v>-7510465.474914019</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>5.865</v>
+      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24459,12 +24245,12 @@
         <v>-7510380.562614019</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>5.872</v>
+      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24498,12 +24284,12 @@
         <v>-7835369.433614019</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>5.893</v>
+      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24537,12 +24323,12 @@
         <v>-7488870.94991402</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>5.882</v>
+      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24576,12 +24362,12 @@
         <v>-7488870.94991402</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>5.883</v>
+      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24615,12 +24401,12 @@
         <v>-7187058.75641402</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>5.883</v>
+      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24654,12 +24440,12 @@
         <v>-6841888.145814019</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>5.885</v>
+      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24693,12 +24479,12 @@
         <v>-6841888.145814019</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24732,12 +24518,12 @@
         <v>-6906739.115014019</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>5.886</v>
+      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24771,12 +24557,12 @@
         <v>-6606603.501514019</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>5.883</v>
+      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24810,12 +24596,12 @@
         <v>-6960103.052514019</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>5.885</v>
+      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24849,12 +24635,12 @@
         <v>-6756600.509714019</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>5.883</v>
+      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24888,12 +24674,12 @@
         <v>-7037790.737914019</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>5.885</v>
+      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24927,12 +24713,12 @@
         <v>-7037790.737914019</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>5.909</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>5.883</v>
+      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
